--- a/TRANSACTION_DETAIL.xlsx
+++ b/TRANSACTION_DETAIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6896720be30409a7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="711" documentId="8_{3A25D9D6-0ADE-43C3-8A10-715641CE2D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B973B685-87CA-4208-895E-B7E31DDB402F}"/>
+  <xr:revisionPtr revIDLastSave="1175" documentId="8_{3A25D9D6-0ADE-43C3-8A10-715641CE2D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0CB1E6B-BE5D-4751-A4B1-0A8EBBA3550B}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{C083F9DC-83E3-45C1-8E91-E5F57F751760}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CRYPTO!$A$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CRYPTO!$A$1:$H$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="212">
   <si>
     <t>p_id</t>
   </si>
@@ -461,9 +461,6 @@
     <t>CRYPTOTRANS0065</t>
   </si>
   <si>
-    <t>CRYPT000N</t>
-  </si>
-  <si>
     <t>CRYPT000L</t>
   </si>
   <si>
@@ -557,7 +554,127 @@
     <t>CRYPT000S</t>
   </si>
   <si>
-    <t>CHANGED FROM S TO B</t>
+    <t>CRYPTOTRANS0081</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0082</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0083</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0084</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0085</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0086</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0087</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0088</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0089</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0092</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0093</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0094</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0095</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0096</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0097</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0098</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0100</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0101</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0103</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0105</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0106</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0107</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0112</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0113</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS00114</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0116</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0117</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0120</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0121</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0122</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0123</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0124</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0126</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0127</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0128</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0223</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0225</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0228</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0140</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0141</t>
+  </si>
+  <si>
+    <t>CRYPTOTRANS0150</t>
   </si>
 </sst>
 </file>
@@ -1881,11 +1998,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B663F0-15E3-4AE6-9D87-180322322A06}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:H71"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1901,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
@@ -1936,7 +2051,7 @@
         <v>119</v>
       </c>
       <c r="D2" s="18">
-        <v>43867</v>
+        <v>44233</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
@@ -1962,7 +2077,7 @@
         <v>119</v>
       </c>
       <c r="D3" s="18">
-        <v>43867</v>
+        <v>44233</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -1988,7 +2103,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="18">
-        <v>43893</v>
+        <v>44258</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
@@ -2014,7 +2129,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="18">
-        <v>43906</v>
+        <v>44271</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
@@ -2040,10 +2155,10 @@
         <v>71</v>
       </c>
       <c r="D6" s="18">
-        <v>43906</v>
+        <v>44271</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2066,10 +2181,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="18">
-        <v>43906</v>
+        <v>44271</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2092,7 +2207,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="18">
-        <v>43925</v>
+        <v>44290</v>
       </c>
       <c r="E8" t="s">
         <v>65</v>
@@ -2109,129 +2224,129 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D9" s="18">
-        <v>43971</v>
+        <v>44381</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>58704</v>
+        <v>110.69</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D10" s="18">
-        <v>43973</v>
+        <v>44336</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>207.23</v>
+        <v>58704</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="18">
-        <v>43973</v>
+        <v>44338</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>211.17</v>
+        <v>207.23</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
       </c>
       <c r="D12" s="18">
-        <v>43973</v>
+        <v>44338</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>58704</v>
+        <v>250.23</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
       </c>
       <c r="D13" s="18">
-        <v>43973</v>
+        <v>44338</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>58704</v>
+        <v>211.17</v>
       </c>
       <c r="H13" t="s">
         <v>63</v>
@@ -2239,25 +2354,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D14" s="18">
-        <v>43996</v>
+        <v>44338</v>
       </c>
       <c r="E14" t="s">
         <v>65</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>207.23</v>
+        <v>58704</v>
       </c>
       <c r="H14" t="s">
         <v>63</v>
@@ -2265,25 +2380,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D15" s="18">
-        <v>44028</v>
+        <v>44449</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>105.69</v>
+        <v>65704</v>
       </c>
       <c r="H15" t="s">
         <v>63</v>
@@ -2291,25 +2406,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D16" s="18">
-        <v>44045</v>
+        <v>44361</v>
       </c>
       <c r="E16" t="s">
         <v>65</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>52.62</v>
+        <v>207.23</v>
       </c>
       <c r="H16" t="s">
         <v>63</v>
@@ -2317,25 +2432,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D17" s="18">
-        <v>44045</v>
+        <v>44393</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>52.62</v>
+        <v>110.69</v>
       </c>
       <c r="H17" t="s">
         <v>63</v>
@@ -2343,25 +2458,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="18">
-        <v>44086</v>
+        <v>44410</v>
       </c>
       <c r="E18" t="s">
         <v>65</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>211.17</v>
+        <v>52.62</v>
       </c>
       <c r="H18" t="s">
         <v>63</v>
@@ -2369,25 +2484,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="18">
-        <v>44086</v>
+        <v>44410</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>579.92999999999995</v>
+        <v>51.62</v>
       </c>
       <c r="H19" t="s">
         <v>63</v>
@@ -2395,7 +2510,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>81</v>
@@ -2404,7 +2519,7 @@
         <v>80</v>
       </c>
       <c r="D20" s="18">
-        <v>44086</v>
+        <v>44451</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
@@ -2421,59 +2536,59 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="18">
-        <v>44086</v>
+        <v>44451</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>27.56</v>
+        <v>579.92999999999995</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="18">
-        <v>44086</v>
+        <v>44451</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>27.56</v>
+        <v>216.17</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -2482,13 +2597,13 @@
         <v>79</v>
       </c>
       <c r="D23" s="18">
-        <v>44088</v>
+        <v>44451</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>27.56</v>
@@ -2499,25 +2614,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="18">
-        <v>44088</v>
+        <v>44451</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>365.53</v>
+        <v>28.56</v>
       </c>
       <c r="H24" t="s">
         <v>84</v>
@@ -2525,25 +2640,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="18">
-        <v>44088</v>
+        <v>44453</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>365.53</v>
+        <v>22.56</v>
       </c>
       <c r="H25" t="s">
         <v>84</v>
@@ -2551,181 +2666,181 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D26" s="18">
-        <v>44088</v>
+        <v>44453</v>
       </c>
       <c r="E26" t="s">
         <v>65</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>365.53</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D27" s="18">
-        <v>44105</v>
+        <v>44453</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>375.53</v>
       </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="18">
-        <v>44119</v>
+        <v>44453</v>
       </c>
       <c r="E28" t="s">
         <v>65</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>207.94</v>
+        <v>365.53</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="D29" s="18">
-        <v>44119</v>
+        <v>44470</v>
       </c>
       <c r="E29" t="s">
         <v>65</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G29">
-        <v>624.83000000000004</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30" s="18">
-        <v>44119</v>
+        <v>44484</v>
       </c>
       <c r="E30" t="s">
         <v>65</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G30">
-        <v>624.83000000000004</v>
+        <v>207.94</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="18">
-        <v>44119</v>
+        <v>44484</v>
       </c>
       <c r="E31" t="s">
         <v>65</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>624.83000000000004</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D32" s="18">
-        <v>44151</v>
+        <v>44484</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>365.53</v>
+        <v>624.83000000000004</v>
       </c>
       <c r="H32" t="s">
         <v>63</v>
@@ -2733,25 +2848,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D33" s="18">
-        <v>44151</v>
+        <v>44484</v>
       </c>
       <c r="E33" t="s">
         <v>65</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>4083.31</v>
+        <v>624.83000000000004</v>
       </c>
       <c r="H33" t="s">
         <v>63</v>
@@ -2759,51 +2874,51 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D34" s="18">
-        <v>44151</v>
+        <v>44516</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>207.94</v>
+        <v>370.53</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D35" s="18">
-        <v>44156</v>
+        <v>44516</v>
       </c>
       <c r="E35" t="s">
         <v>67</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>1.5</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>4083.31</v>
       </c>
       <c r="H35" t="s">
         <v>63</v>
@@ -2811,51 +2926,51 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D36" s="18">
-        <v>44191</v>
+        <v>44516</v>
       </c>
       <c r="E36" t="s">
         <v>65</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G36">
-        <v>207.23</v>
+        <v>207.94</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D37" s="18">
-        <v>44193</v>
+        <v>44521</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F37">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>55.81</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>63</v>
@@ -2863,25 +2978,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
       </c>
       <c r="D38" s="18">
-        <v>44206</v>
+        <v>44556</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>207.23</v>
       </c>
       <c r="H38" t="s">
         <v>63</v>
@@ -2889,65 +3004,65 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="18">
-        <v>44241</v>
+        <v>44224</v>
       </c>
       <c r="E39" t="s">
         <v>65</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G39">
-        <v>0.21</v>
+        <v>365.53</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D40" s="18">
-        <v>44241</v>
+        <v>44206</v>
       </c>
       <c r="E40" t="s">
         <v>65</v>
       </c>
       <c r="F40">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G40">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D41" s="18">
         <v>44241</v>
@@ -2956,10 +3071,10 @@
         <v>65</v>
       </c>
       <c r="F41">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G41">
-        <v>105.69</v>
+        <v>0.21</v>
       </c>
       <c r="H41" t="s">
         <v>72</v>
@@ -2967,25 +3082,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D42" s="18">
-        <v>44261</v>
+        <v>44241</v>
       </c>
       <c r="E42" t="s">
         <v>65</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G42">
-        <v>207.23</v>
+        <v>0.21</v>
       </c>
       <c r="H42" t="s">
         <v>72</v>
@@ -2993,25 +3108,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
       </c>
       <c r="D43" s="18">
-        <v>44261</v>
+        <v>44241</v>
       </c>
       <c r="E43" t="s">
         <v>65</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>207.23</v>
+        <v>105.69</v>
       </c>
       <c r="H43" t="s">
         <v>72</v>
@@ -3019,13 +3134,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
         <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D44" s="18">
         <v>44261</v>
@@ -3040,18 +3155,18 @@
         <v>207.23</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D45" s="18">
         <v>44261</v>
@@ -3060,36 +3175,36 @@
         <v>65</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>1.75</v>
+        <v>207.23</v>
       </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
       </c>
       <c r="D46" s="18">
-        <v>44239</v>
+        <v>44261</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>207.23</v>
       </c>
       <c r="H46" t="s">
         <v>63</v>
@@ -3097,25 +3212,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
       </c>
       <c r="D47" s="18">
-        <v>44239</v>
+        <v>44296</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G47">
-        <v>58704</v>
+        <v>200.75</v>
       </c>
       <c r="H47" t="s">
         <v>63</v>
@@ -3123,25 +3238,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D48" s="18">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G48">
-        <v>58704</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
         <v>63</v>
@@ -3149,25 +3264,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" s="18">
-        <v>44242</v>
+        <v>44267</v>
       </c>
       <c r="E49" t="s">
         <v>67</v>
       </c>
       <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
         <v>2</v>
-      </c>
-      <c r="G49">
-        <v>58704</v>
       </c>
       <c r="H49" t="s">
         <v>63</v>
@@ -3175,16 +3290,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D50" s="18">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="E50" t="s">
         <v>65</v>
@@ -3193,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="G50">
-        <v>318.33999999999997</v>
+        <v>58704</v>
       </c>
       <c r="H50" t="s">
         <v>63</v>
@@ -3201,13 +3316,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="18">
         <v>44242</v>
@@ -3216,10 +3331,10 @@
         <v>65</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>579.92999999999995</v>
+        <v>58704</v>
       </c>
       <c r="H51" t="s">
         <v>63</v>
@@ -3227,25 +3342,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="18">
-        <v>44265</v>
+        <v>44270</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G52">
-        <v>365.53</v>
+        <v>60002</v>
       </c>
       <c r="H52" t="s">
         <v>63</v>
@@ -3253,51 +3368,51 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D53" s="18">
-        <v>44266</v>
+        <v>44242</v>
       </c>
       <c r="E53" t="s">
         <v>65</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>55.81</v>
+        <v>318.33999999999997</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="D54" s="18">
-        <v>44266</v>
+        <v>44242</v>
       </c>
       <c r="E54" t="s">
         <v>65</v>
       </c>
       <c r="F54">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>365.53</v>
+        <v>579.92999999999995</v>
       </c>
       <c r="H54" t="s">
         <v>63</v>
@@ -3305,77 +3420,77 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D55" s="18">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E55" t="s">
         <v>65</v>
       </c>
       <c r="F55">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>0.21</v>
+        <v>365.53</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D56" s="18">
         <v>44266</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>0.21</v>
+        <v>55.81</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>163</v>
+        <v>110</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D57" s="18">
-        <v>44275</v>
+        <v>44450</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F57">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G57">
-        <v>55.81</v>
+        <v>340.53</v>
       </c>
       <c r="H57" t="s">
         <v>63</v>
@@ -3383,65 +3498,65 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>163</v>
+      <c r="C58" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D58" s="18">
-        <v>44275</v>
+        <v>44266</v>
       </c>
       <c r="E58" t="s">
         <v>65</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G58">
         <v>0.21</v>
       </c>
       <c r="H58" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>164</v>
+      <c r="C59" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D59" s="18">
-        <v>44275</v>
+        <v>44266</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F59">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G59">
         <v>0.21</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D60" s="18">
         <v>44275</v>
@@ -3450,10 +3565,10 @@
         <v>65</v>
       </c>
       <c r="F60">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60">
-        <v>0.21</v>
+        <v>55.81</v>
       </c>
       <c r="H60" t="s">
         <v>63</v>
@@ -3461,224 +3576,224 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D61" s="18">
-        <v>44275</v>
+        <v>44283</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F61">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G61">
-        <v>0.21</v>
+        <v>60.01</v>
       </c>
       <c r="H61" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D62" s="18">
-        <v>44296</v>
+        <v>44275</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G62">
         <v>0.21</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D63" s="18">
-        <v>44296</v>
+        <v>44275</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G63">
-        <v>52.62</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D64" s="18">
-        <v>44296</v>
+        <v>44336</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G64">
-        <v>40.880000000000003</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D65" s="18">
-        <v>44296</v>
+        <v>44275</v>
       </c>
       <c r="E65" t="s">
         <v>65</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="G65">
-        <v>58704</v>
+        <v>0.21</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D66" s="18">
-        <v>44300</v>
+        <v>44275</v>
       </c>
       <c r="E66" t="s">
         <v>65</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="G66">
-        <v>318.33999999999997</v>
+        <v>0.21</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D67" s="18">
-        <v>44306</v>
+        <v>44296</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G67">
-        <v>207.23</v>
+        <v>0.21</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D68" s="18">
-        <v>44306</v>
+        <v>44296</v>
       </c>
       <c r="E68" t="s">
         <v>65</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G68">
-        <v>318.33999999999997</v>
+        <v>52.62</v>
       </c>
       <c r="H68" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="D69" s="18">
-        <v>44306</v>
+        <v>44296</v>
       </c>
       <c r="E69" t="s">
         <v>65</v>
@@ -3687,33 +3802,33 @@
         <v>20</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D70" s="18">
-        <v>44306</v>
+        <v>44296</v>
       </c>
       <c r="E70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F70">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>52.62</v>
+        <v>58704</v>
       </c>
       <c r="H70" t="s">
         <v>84</v>
@@ -3721,16 +3836,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D71" s="18">
-        <v>44306</v>
+        <v>44300</v>
       </c>
       <c r="E71" t="s">
         <v>65</v>
@@ -3739,22 +3854,1184 @@
         <v>5</v>
       </c>
       <c r="G71">
-        <v>211.17</v>
+        <v>318.33999999999997</v>
       </c>
       <c r="H71" t="s">
-        <v>63</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="18">
+        <v>44306</v>
+      </c>
+      <c r="E72" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>207.23</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="18">
+        <v>44306</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>318.33999999999997</v>
+      </c>
+      <c r="H73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="18">
+        <v>44306</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="18">
+        <v>44306</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>52.62</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>81</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="18">
+        <v>44306</v>
+      </c>
+      <c r="E76" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>211.17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="18">
+        <v>44557</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>220.03</v>
+      </c>
+      <c r="H77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="18">
+        <v>44367</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="18">
+        <v>44389</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="18">
+        <v>44535</v>
+      </c>
+      <c r="E80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="18">
+        <v>44362</v>
+      </c>
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="18">
+        <v>44454</v>
+      </c>
+      <c r="E82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82">
+        <v>25</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="18">
+        <v>44484</v>
+      </c>
+      <c r="E83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83">
+        <v>25</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="18">
+        <v>44336</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84">
+        <v>30</v>
+      </c>
+      <c r="G84">
+        <v>52.62</v>
+      </c>
+      <c r="H84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="18">
+        <v>44480</v>
+      </c>
+      <c r="E85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85">
+        <v>60.15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="18">
+        <v>44480</v>
+      </c>
+      <c r="E86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>55.15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="18">
+        <v>44530</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>300.17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="18">
+        <v>44296</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>60.88</v>
+      </c>
+      <c r="H88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" s="18">
+        <v>44510</v>
+      </c>
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>65000</v>
+      </c>
+      <c r="H89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" s="18">
+        <v>44524</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>420.34</v>
+      </c>
+      <c r="H90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="18">
+        <v>44350</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>210.23</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="18">
+        <v>44397</v>
+      </c>
+      <c r="E92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>320.33999999999997</v>
+      </c>
+      <c r="H92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="18">
+        <v>44422</v>
+      </c>
+      <c r="E93" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>210.23</v>
+      </c>
+      <c r="H93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="18">
+        <v>44515</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>630.83000000000004</v>
+      </c>
+      <c r="H94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="18">
+        <v>44328</v>
+      </c>
+      <c r="E95" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>60002</v>
+      </c>
+      <c r="H95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="18">
+        <v>44331</v>
+      </c>
+      <c r="E96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>335.34</v>
+      </c>
+      <c r="H96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" s="18">
+        <v>44301</v>
+      </c>
+      <c r="E97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97">
+        <v>601.92999999999995</v>
+      </c>
+      <c r="H97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="18">
+        <v>44418</v>
+      </c>
+      <c r="E98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
+        <v>370.6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="18">
+        <v>44330</v>
+      </c>
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99">
+        <v>70</v>
+      </c>
+      <c r="G99">
+        <v>1.21</v>
+      </c>
+      <c r="H99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="18">
+        <v>44383</v>
+      </c>
+      <c r="E100" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100">
+        <v>60</v>
+      </c>
+      <c r="G100">
+        <v>210.23</v>
+      </c>
+      <c r="H100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="18">
+        <v>44269</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <v>3.21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" s="18">
+        <v>44330</v>
+      </c>
+      <c r="E102" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102">
+        <v>62.62</v>
+      </c>
+      <c r="H102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="18">
+        <v>44274</v>
+      </c>
+      <c r="E103" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103">
+        <v>50</v>
+      </c>
+      <c r="G103">
+        <v>60.81</v>
+      </c>
+      <c r="H103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="18">
+        <v>44455</v>
+      </c>
+      <c r="E104" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>115.69</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="18">
+        <v>44445</v>
+      </c>
+      <c r="E105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>220.23</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="18">
+        <v>44546</v>
+      </c>
+      <c r="E106" t="s">
+        <v>67</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>222.23</v>
+      </c>
+      <c r="H106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="18">
+        <v>44518</v>
+      </c>
+      <c r="E107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>211.94</v>
+      </c>
+      <c r="H107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="18">
+        <v>44520</v>
+      </c>
+      <c r="E108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>212.94</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="18">
+        <v>44494</v>
+      </c>
+      <c r="E109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <v>627.83000000000004</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" s="18">
+        <v>44454</v>
+      </c>
+      <c r="E110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>679.93</v>
+      </c>
+      <c r="H110" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" s="18">
+        <v>44331</v>
+      </c>
+      <c r="E111" t="s">
+        <v>67</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>65.81</v>
+      </c>
+      <c r="H111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="18">
+        <v>44516</v>
+      </c>
+      <c r="E112" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>630.83000000000004</v>
+      </c>
+      <c r="H112" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="18">
+        <v>44556</v>
+      </c>
+      <c r="E113" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>210.94</v>
+      </c>
+      <c r="H113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>209</v>
+      </c>
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D114" s="18">
+        <v>44302</v>
+      </c>
+      <c r="E114" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114">
+        <v>600</v>
+      </c>
+      <c r="G114">
+        <v>0.21</v>
+      </c>
+      <c r="H114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="18">
+        <v>44328</v>
+      </c>
+      <c r="E115" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115">
+        <v>200</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="18">
+        <v>44551</v>
+      </c>
+      <c r="E116" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116">
+        <v>135</v>
+      </c>
+      <c r="G116">
+        <v>365.53</v>
+      </c>
+      <c r="H116" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H71" xr:uid="{C1B663F0-15E3-4AE6-9D87-180322322A06}"/>
+  <autoFilter ref="A1:H115" xr:uid="{C1B663F0-15E3-4AE6-9D87-180322322A06}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
